--- a/Estrel05/Requirement_List+Use_Case_Description.xlsx
+++ b/Estrel05/Requirement_List+Use_Case_Description.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estrel\Downloads\Assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estrel\Documents\GitHub\SE\Estrel05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981407E9-95D2-446C-9437-5A0067E60381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05EA52E-28B4-4D4E-9A51-3EC785C736C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{3D3D4D0C-A7CC-4F8E-86DC-05F5ECA135A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3D3D4D0C-A7CC-4F8E-86DC-05F5ECA135A6}"/>
   </bookViews>
   <sheets>
     <sheet name="RequirementList" sheetId="1" r:id="rId1"/>
-    <sheet name="UseCaseDescription" sheetId="2" r:id="rId2"/>
+    <sheet name="UseCaseDescription" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자는 등록된 자전거 리스트를 조회할 수 있으며 원하는 항목을 선택해서 상세 내용을 볼 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자는 자전거 리스트 화면에서 자전거 항목을 삭제할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상세정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원은 대여소 리스트 화면에서 대여소를 선택하여 상세 정보를 확인할 수 있다. 이 화면은 대여소명, 대여소 위치, 사용 가능 자전거 목록 등의 정보를 포함한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,67 +105,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use case description: 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 등록 완료 메시지를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 등록된 자전거 리스트를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extensions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use case description: 회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 자전거 정보를 입력한 뒤 등록 버튼을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 자전거 조회 버튼을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 4 이후 자전거 리스트의 항목을 선택하여 상세 내용을 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 4 이후 자전거 리스트의 항목을 선택하여 삭제할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 대여소 이름을 입력한 뒤 검색 버튼을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 조건에 맞는 대여소 리스트를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 대여소를 선택한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 대여소의 상세 정보 페이지를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 자전거 대여 버튼을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 추가 정보 입력 페이지를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 4에서 대여 가능한 자전거가 없을 경우 예약 대기를 신청할 수 있다.</t>
+    <t>1. 관리자가 자전거 등록 페이지에 접속한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 입력해야 할 자전거 정보 form을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 정보를 입력한 뒤 등록 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 등록 완료 메시지를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 관리자가 자전거 조회 페이지에 접속한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 등록된 자전거 목록을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 등록된 자전거 리스트를 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 자전거 리스트 화면에서 자전거를 선택하여 상세정보를 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여소 상세정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자전거 상세정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 이후 관리자는 자전거를 선택하여 상세정보를 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 이후 관리자는 자전거를 선택하여 삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회원이 대여소 이름을 입력하고 검색 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 조건에 맞는 대여소 목록을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회원이 대여소 목록에서 대여소를 선택하여 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 회원이 선택한 대여소의 상세정보를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 이후 대여 가능한 자전거가 없을 경우 회원은 예약 대기를 신청할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회원이 원하는 자전거의 대여 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 대여 완료 메시지를 출력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -320,67 +328,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="6"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -400,21 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -424,56 +364,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,109 +744,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B8AAB1-BD8E-47CF-98E6-E67952993D10}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="8.5625" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.5625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.5625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A2" s="12">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
@@ -919,6 +882,9 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -927,122 +893,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0B89D1-C378-42C3-9B00-5D76450A292B}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79300713-6ED1-4F09-A341-0C2BBB6BFB8D}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="48.5625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="48.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="21" t="s">
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="19" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A15" s="27" t="s">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estrel05/Requirement_List+Use_Case_Description.xlsx
+++ b/Estrel05/Requirement_List+Use_Case_Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estrel\Documents\GitHub\SE\Estrel05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05EA52E-28B4-4D4E-9A51-3EC785C736C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87048EC-908A-4E7D-98C7-B7D28ACA88D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3D3D4D0C-A7CC-4F8E-86DC-05F5ECA135A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,30 +57,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자전거 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 자전거 리스트 화면에서 자전거 항목을 삭제할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대여소 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원은 대여소 리스트 화면에서 대여소를 선택하여 상세 정보를 확인할 수 있다. 이 화면은 대여소명, 대여소 위치, 사용 가능 자전거 목록 등의 정보를 포함한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 조건에 맞는 대여소를 검색하여 자전거를 대여할 수 있다. 대여소 이름을 입력하여 검색하면 조건에 맞는 대여소 리스트가 출력된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자전거 대여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원은 상세정보 화면에서 남아 있는 자전거를 즉시 대여할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 상세정보 화면에서 남은 자전거가 없는 경우 예약 대기를 신청할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor Action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,22 +105,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자는 등록된 자전거 리스트를 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 자전거 리스트 화면에서 자전거를 선택하여 상세정보를 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대여소 상세정보 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자전거 상세정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2 이후 관리자는 자전거를 선택하여 상세정보를 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +142,22 @@
   </si>
   <si>
     <t>2. 대여 완료 메시지를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 등록된 자전거 리스트를 조회할 수 있다. 원하는 자전거를 선택하여 상세정보를 조회하거나 삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 대여소 리스트 화면에서 대여소를 선택하여 상세 정보를 확인할 수 있다. 자전거가 남아 있지 않은 경우 예약 대기를 신청할 수 있다. 예약 대기 시 문자 알림을 받을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 상세정보 화면에서 남아 있는 자전거를 즉시 대여할 수 있다. 대여 시 문자 알림을 받을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 이름으로 대여소를 검색할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +340,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -382,30 +376,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,18 +392,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B8AAB1-BD8E-47CF-98E6-E67952993D10}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -769,92 +733,68 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A2" s="7">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="7">
+    <row r="3" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A4" s="7">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="7">
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
@@ -876,15 +816,6 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -896,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79300713-6ED1-4F09-A341-0C2BBB6BFB8D}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -911,35 +842,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>16</v>
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="16"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>18</v>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>20</v>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.6">
@@ -948,128 +879,128 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>16</v>
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="26"/>
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
-        <v>31</v>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>16</v>
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>33</v>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" s="20"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B23" s="22"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>16</v>
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A26" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="26"/>
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
-        <v>36</v>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
